--- a/Results/Model Test/Model test gender 2.xlsx
+++ b/Results/Model Test/Model test gender 2.xlsx
@@ -5,18 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cindyzhang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cindyzhang/Desktop/llm human appearances code /Results/Model Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209CBB20-E73D-B944-A314-456FF83EF49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00422EDF-920E-A141-BDF2-D113505711DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="460" windowWidth="28800" windowHeight="16600" activeTab="1" xr2:uid="{C38CC57F-CFFA-084A-B724-DD6B7344B996}"/>
+    <workbookView xWindow="9480" yWindow="460" windowWidth="28800" windowHeight="16600" xr2:uid="{C38CC57F-CFFA-084A-B724-DD6B7344B996}"/>
   </bookViews>
   <sheets>
     <sheet name="gpt4o " sheetId="1" r:id="rId1"/>
-    <sheet name="gpt4.1" sheetId="2" r:id="rId2"/>
-    <sheet name="deepseek" sheetId="3" r:id="rId3"/>
-    <sheet name="claude" sheetId="5" r:id="rId4"/>
+    <sheet name="deepseek" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="9">
   <si>
     <t>female less</t>
   </si>
@@ -426,7 +424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559ACB27-ADC4-C347-9567-DDBE0053F63E}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D61"/>
     </sheetView>
   </sheetViews>
@@ -1292,875 +1290,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F13BA6-607D-324D-83BF-87F2DEBC69C8}">
-  <dimension ref="A1:D61"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5095EC-D78E-0040-A1A6-BCE831E29611}">
   <dimension ref="A1:D61"/>
   <sheetViews>
@@ -3027,16 +2156,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC255432-2005-344E-BF0C-886F974BE0F7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>